--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2020_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2020_top_box_office.xlsx
@@ -453,2395 +453,2395 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$204,417,855</t>
+          <t>$206,305,244</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>Sonic the Hedgehog</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$157,901,466</t>
+          <t>$148,974,665</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sonic the Hedgehog</t>
+          <t>Birds of Prey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$146,066,470</t>
+          <t>$84,158,461</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jumanji: The Next Level</t>
+          <t>Dolittle</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$124,736,710</t>
+          <t>$77,047,065</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Star Wars: Episode IX - The Rise of Skywalker</t>
+          <t>The Invisible Man</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$124,496,308</t>
+          <t>$70,410,000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Birds of Prey</t>
+          <t>The Call of the Wild</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$84,158,461</t>
+          <t>$62,342,368</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dolittle</t>
+          <t>Onward</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$77,047,065</t>
+          <t>$61,555,145</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Little Women</t>
+          <t>The Croods: A New Age</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$70,508,087</t>
+          <t>$58,568,815</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Invisible Man</t>
+          <t>Tenet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$64,914,050</t>
+          <t>$58,504,105</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Call of the Wild</t>
+          <t>Wonder Woman 1984</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$62,342,368</t>
+          <t>$46,801,036</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Onward</t>
+          <t>The Gentlemen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$61,555,145</t>
+          <t>$36,471,795</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tenet</t>
+          <t>Fantasy Island</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$57,235,189</t>
+          <t>$27,309,289</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Knives Out</t>
+          <t>The New Mutants</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$49,651,655</t>
+          <t>$23,852,659</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Frozen II</t>
+          <t>Like a Boss</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$47,228,896</t>
+          <t>$22,169,514</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spies in Disguise</t>
+          <t>The War with Grandpa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$37,433,325</t>
+          <t>$21,277,892</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Gentlemen</t>
+          <t>The Grudge</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$36,471,397</t>
+          <t>$21,221,803</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Just Mercy</t>
+          <t>Unhinged</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$35,733,621</t>
+          <t>$20,831,465</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Croods: A New Age</t>
+          <t>The Photograph</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$32,334,280</t>
+          <t>$20,578,185</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Parasite</t>
+          <t>Underwater</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$30,736,060</t>
+          <t>$17,291,078</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fantasy Island</t>
+          <t>The Turning</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$26,441,782</t>
+          <t>$15,472,775</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uncut Gems</t>
+          <t>Gretel &amp; Hansel</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$25,789,956</t>
+          <t>$15,347,654</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The New Mutants</t>
+          <t>Monster Hunter</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$24,044,274</t>
+          <t>$15,162,470</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wonder Woman 1984</t>
+          <t>Honest Thief</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$23,009,311</t>
+          <t>$14,163,574</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Like a Boss</t>
+          <t>My Hero Academia: Heroes Rising</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$22,169,514</t>
+          <t>$13,304,000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The Grudge</t>
+          <t>News of the World</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$21,221,803</t>
+          <t>$12,668,325</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Unhinged</t>
+          <t>Brahms: The Boy II</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$20,831,465</t>
+          <t>$12,611,536</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Photograph</t>
+          <t>Bloodshot</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$20,578,185</t>
+          <t>$12,561,824</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The War with Grandpa</t>
+          <t>Impractical Jokers: The Movie</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$18,702,194</t>
+          <t>$10,691,091</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Underwater</t>
+          <t>Come Play</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$17,291,078</t>
+          <t>$10,475,990</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Turning</t>
+          <t>Emma.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$15,472,775</t>
+          <t>$10,055,355</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gretel &amp; Hansel</t>
+          <t>I Still Believe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$15,347,654</t>
+          <t>$9,868,521</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honest Thief</t>
+          <t>Let Him Go</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$14,163,574</t>
+          <t>$9,358,025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>My Hero Academia: Heroes Rising</t>
+          <t>Freaky</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$13,651,826</t>
+          <t>$9,030,855</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bombshell</t>
+          <t>Downhill</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$13,644,923</t>
+          <t>$8,287,061</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The Way Back</t>
+          <t>Weathering with You</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$13,590,514</t>
+          <t>$8,056,636</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brahms: The Boy II</t>
+          <t>Promising Young Woman</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$12,611,536</t>
+          <t>$6,460,965</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jojo Rabbit</t>
+          <t>Fatale</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$12,311,180</t>
+          <t>$6,306,897</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Impractical Jokers: The Movie</t>
+          <t>The Hunt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$10,466,091</t>
+          <t>$5,812,500</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ford v Ferrari</t>
+          <t>The Rhythm Section</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$10,427,913</t>
+          <t>$5,437,971</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Emma.</t>
+          <t>Hocus Pocus2020 Re-release</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$10,055,355</t>
+          <t>$4,828,000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bloodshot</t>
+          <t>The SpongeBob Movie: Sponge on the Run</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$10,021,787</t>
+          <t>$4,810,790</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>I Still Believe</t>
+          <t>The Broken Hearts Gallery</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$9,868,521</t>
+          <t>$4,067,442</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Come Play</t>
+          <t>Infidel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$9,505,540</t>
+          <t>$4,051,990</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Let Him Go</t>
+          <t>Bill &amp; Ted Face the Music</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$9,347,940</t>
+          <t>$3,439,660</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Freaky</t>
+          <t>2020 Oscar Nominated Short Films</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$8,702,060</t>
+          <t>$3,306,611</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Downhill</t>
+          <t>The Empty Man</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$8,287,061</t>
+          <t>$2,992,948</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Weathering with You</t>
+          <t>My Boyfriend's Meds</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$7,798,743</t>
+          <t>$2,971,116</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cats</t>
+          <t>The Last Full Measure</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$7,196,675</t>
+          <t>$2,949,212</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Hunt</t>
+          <t>Words on Bathroom Walls</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$5,812,500</t>
+          <t>$2,542,518</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Rhythm Section</t>
+          <t>Star Wars: Episode V - The Empire Strikes Back2020 Re-release</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$5,437,971</t>
+          <t>$2,482,000</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Monster Hunter</t>
+          <t>After We Collided</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$5,018,403</t>
+          <t>$2,386,483</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A Beautiful Day in the Neighborhood</t>
+          <t>The Nightmare Before Christmas2020 Re-release</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$4,997,062</t>
+          <t>$2,286,000</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hocus Pocus2020 Re-release</t>
+          <t>Half Brothers</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$4,828,000</t>
+          <t>$2,241,980</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Richard Jewell</t>
+          <t>Elf2020 Re-release</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$4,523,325</t>
+          <t>$2,182,679</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The SpongeBob Movie: Sponge on the Run</t>
+          <t>The Lodge</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$4,386,619</t>
+          <t>$2,138,907</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Broken Hearts Gallery</t>
+          <t>The Personal History of David Copperfield</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$4,067,442</t>
+          <t>$1,876,298</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Infidel</t>
+          <t>Pinocchio</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$4,051,990</t>
+          <t>$1,831,718</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>News of the World</t>
+          <t>The Wretched</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$3,717,170</t>
+          <t>$1,814,193</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Portrait of a Lady on Fire</t>
+          <t>The Rental</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$3,641,251</t>
+          <t>$1,637,548</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bill &amp; Ted Face the Music</t>
+          <t>Jurassic Park2020 Re-release</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$3,498,714</t>
+          <t>$1,386,600</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020 Oscar Nominated Short Films</t>
+          <t>2 Hearts</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$3,306,611</t>
+          <t>$1,349,286</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Queen &amp; Slim</t>
+          <t>Peninsula</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$3,089,365</t>
+          <t>$1,231,407</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The Empty Man</t>
+          <t>True to the Game 2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$2,992,498</t>
+          <t>$1,200,871</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>My Boyfriend's Meds</t>
+          <t>The Assistant</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$2,971,116</t>
+          <t>$1,100,313</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The Last Full Measure</t>
+          <t>Love and Monsters</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$2,949,212</t>
+          <t>$1,070,714</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Words on Bathroom Walls</t>
+          <t>Relic</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$2,542,518</t>
+          <t>$1,047,083</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Star Wars: Episode V - The Empire Strikes Back2020 Re-release</t>
+          <t>The Tax Collector</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$2,482,000</t>
+          <t>$1,044,212</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fatale</t>
+          <t>The Last Shift</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$2,388,133</t>
+          <t>$1,034,467</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Nightmare Before Christmas2020 Re-release</t>
+          <t>Becky</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$2,286,000</t>
+          <t>$1,004,574</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ip Man 4: The Finale</t>
+          <t>Echo Boomers</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$2,180,071</t>
+          <t>$931,000</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Half Brothers</t>
+          <t>All My Life</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$2,016,150</t>
+          <t>$913,935</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Elf2020 Re-release</t>
+          <t>Mafia Inc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$1,975,000</t>
+          <t>$889,863</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Personal History of David Copperfield</t>
+          <t>National Lampoon's Christmas Vacation2020 Re-release</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$1,876,298</t>
+          <t>$871,000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>The Wretched</t>
+          <t>Cut Throat City</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$1,812,696</t>
+          <t>$855,894</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>The Lodge</t>
+          <t>The Goonies2020 Re-release</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$1,724,781</t>
+          <t>$825,000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Joker</t>
+          <t>Sarileru Neekevvaru</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$1,678,800</t>
+          <t>$821,000</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>The Rental</t>
+          <t>Vanguard</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$1,627,911</t>
+          <t>$793,525</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Once Upon a Time in Hollywood</t>
+          <t>Color Out of Space</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$1,425,760</t>
+          <t>$765,561</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jurassic Park2020 Re-release</t>
+          <t>Jaws2020 Re-release</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$1,386,600</t>
+          <t>$758,300</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2 Hearts</t>
+          <t>Possessor</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$1,349,286</t>
+          <t>$752,885</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Promising Young Woman</t>
+          <t>Toy Story2020 Re-release</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$1,208,180</t>
+          <t>$727,000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>True to the Game 2</t>
+          <t>Monsters, Inc.2020 Re-release</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$1,200,871</t>
+          <t>$726,000</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Peninsula</t>
+          <t>Baaghi 3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$1,140,525</t>
+          <t>$721,439</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The Assistant</t>
+          <t>The Polar Express2020 Re-release</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$1,100,313</t>
+          <t>$711,000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Love and Monsters</t>
+          <t>The Santa Clause2020 Re-release</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$1,070,714</t>
+          <t>$706,000</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Relic</t>
+          <t>Patterns of Evidence: The Red Sea Miracle</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$1,046,653</t>
+          <t>$696,191</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The Tax Collector</t>
+          <t>The Last Vermeer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$1,044,212</t>
+          <t>$685,380</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Last Shift</t>
+          <t>The Addams Family2020 Re-release</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$1,034,467</t>
+          <t>$678,926</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Becky</t>
+          <t>100% Wolf</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$1,020,413</t>
+          <t>$658,764</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The Song of Names</t>
+          <t>Synchronic</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$983,357</t>
+          <t>$636,673</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>All My Life</t>
+          <t>Ghostbusters2020 Re-release</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$899,585</t>
+          <t>$605,000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mafia Inc</t>
+          <t>Chhapaak</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$889,863</t>
+          <t>$604,334</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>National Lampoon's Christmas Vacation2020 Re-release</t>
+          <t>Shortcut</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$871,000</t>
+          <t>$588,869</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jay and Silent Bob Reboot</t>
+          <t>Panga</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$857,744</t>
+          <t>$582,720</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A Hidden Life</t>
+          <t>Guardians of the Galaxy2020 Re-release</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$853,047</t>
+          <t>$542,000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cut Throat City</t>
+          <t>Followed</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$845,837</t>
+          <t>$538,179</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Goonies2020 Re-release</t>
+          <t>Alone</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$825,000</t>
+          <t>$537,589</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sarileru Neekevvaru</t>
+          <t>Kajillionaire</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$821,000</t>
+          <t>$531,430</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vanguard</t>
+          <t>The Call</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$793,525</t>
+          <t>$516,521</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>21 Bridges</t>
+          <t>The Big Ugly</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$792,488</t>
+          <t>$514,107</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jaws2020 Re-release</t>
+          <t>The Forgotten Carols</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$758,300</t>
+          <t>$502,252</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Possessor</t>
+          <t>Spell</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$752,885</t>
+          <t>$500,104</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>After We Collided</t>
+          <t>Ava</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$734,210</t>
+          <t>$497,747</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>The Grinch2020 Re-release</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$734,000</t>
+          <t>$473,781</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Toy Story2020 Re-release</t>
+          <t>Beauty and the Beast2020 Re-release</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$727,000</t>
+          <t>$467,000</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Monsters, Inc.2020 Re-release</t>
+          <t>Inside Out2020 Re-release</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$726,000</t>
+          <t>$460,000</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Baaghi 3</t>
+          <t>Trolls World Tour</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$721,439</t>
+          <t>$450,000</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Santa Clause2020 Re-release</t>
+          <t>Once Were Brothers</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$706,000</t>
+          <t>$449,561</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patterns of Evidence: The Red Sea Miracle</t>
+          <t>Chal Mera Putt 2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$696,191</t>
+          <t>$445,000</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pain and Glory</t>
+          <t>CatVideoFest 2020</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$693,609</t>
+          <t>$437,625</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Polar Express2020 Re-release</t>
+          <t>Seberg</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$691,000</t>
+          <t>$434,702</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>The Last Vermeer</t>
+          <t>Iron Man2020 Re-release</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$685,380</t>
+          <t>$430,000</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Addams Family2020 Re-release</t>
+          <t>Infamous</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$678,926</t>
+          <t>$429,148</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Merci pour tout</t>
+          <t>How the Grinch Stole Christmas2020 Re-release</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$636,925</t>
+          <t>$420,180</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Maleficent: Mistress of Evil</t>
+          <t>Tulsa</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$634,868</t>
+          <t>$413,378</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ghostbusters2020 Re-release</t>
+          <t>Stevie Nicks 24 Karat Gold the Concert</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$605,000</t>
+          <t>$410,265</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Chhapaak</t>
+          <t>Buddy Games</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$604,334</t>
+          <t>$405,904</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Shortcut</t>
+          <t>She Dies Tomorrow</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$588,869</t>
+          <t>$398,663</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Panga</t>
+          <t>The Eight Hundred</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$582,720</t>
+          <t>$372,755</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Yellow Rose</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$567,638</t>
+          <t>$367,849</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Black Christmas</t>
+          <t>Black Panther2020 Re-release</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$562,060</t>
+          <t>$367,000</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Synchronic</t>
+          <t>The Kid Detective</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$542,753</t>
+          <t>$364,138</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Guardians of the Galaxy2020 Re-release</t>
+          <t>Greed</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$542,000</t>
+          <t>$355,308</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Color Out of Space</t>
+          <t>Ride Your Wave</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$541,918</t>
+          <t>$332,432</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Followed</t>
+          <t>Les Misérables</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$538,179</t>
+          <t>$330,181</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Alone</t>
+          <t>Die Hard2020 Re-release</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$537,589</t>
+          <t>$325,000</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Harriet</t>
+          <t>Ordinary Love</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$534,455</t>
+          <t>$323,688</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Kajillionaire</t>
+          <t>Save Yourselves!</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$531,430</t>
+          <t>$301,162</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The Addams Family</t>
+          <t>The Informer</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$528,320</t>
+          <t>$300,460</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>100% Wolf</t>
+          <t>The Traitor</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$514,957</t>
+          <t>$296,027</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>The Big Ugly</t>
+          <t>Gremlins2020 Re-release</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$514,107</t>
+          <t>$295,000</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The Call</t>
+          <t>Mystify: Michael Hutchence</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$505,746</t>
+          <t>$289,573</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>The Grinch2020 Re-release</t>
+          <t>Created Equal: Clarence Thomas in His Own Words</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$502,781</t>
+          <t>$282,149</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dark Waters</t>
+          <t>Fatman</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$502,205</t>
+          <t>$278,378</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Forgotten Carols</t>
+          <t>An American in Paris2020 Re-release</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$500,692</t>
+          <t>$267,824</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Spell</t>
+          <t>Heaven</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$500,104</t>
+          <t>$259,323</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ava</t>
+          <t>Wonder Woman2020 Re-release</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$497,747</t>
+          <t>$252,000</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pinocchio</t>
+          <t>Back to the Future2020 Re-release</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$488,838</t>
+          <t>$247,000</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Beauty and the Beast2020 Re-release</t>
+          <t>Lupin III: The First</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$467,000</t>
+          <t>$245,724</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Inside Out2020 Re-release</t>
+          <t>Bohemian Rhapsody2020 Re-release</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$460,000</t>
+          <t>$240,000</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Once Were Brothers</t>
+          <t>Tokyo Godfathers2020 Re-release</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$449,561</t>
+          <t>$237,571</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Seberg</t>
+          <t>Blind Eyes Opened</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$434,702</t>
+          <t>$234,505</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Iron Man2020 Re-release</t>
+          <t>The Climb</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$430,000</t>
+          <t>$234,429</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fantastic Fungi</t>
+          <t>Doctor Who Live Q&amp;A And Screening</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$429,446</t>
+          <t>$228,615</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Infamous</t>
+          <t>Frozen2020 Re-release</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$429,148</t>
+          <t>$215,000</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Tulsa</t>
+          <t>Jiang Ziya</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$413,383</t>
+          <t>$214,670</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Stevie Nicks 24 Karat Gold the Concert</t>
+          <t>Wild Mountain Thyme</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$410,265</t>
+          <t>$213,440</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Buddy Games</t>
+          <t>The Secrets We Keep</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$405,904</t>
+          <t>$207,928</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Black Panther2020 Re-release</t>
+          <t>Fate/stay night [Heaven's Feel] III. spring song</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$367,000</t>
+          <t>$200,000</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The Kid Detective</t>
+          <t>National Theater Live: Cyrano de Bergerac2020 Re-release</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$364,138</t>
+          <t>$198,352</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>She Dies Tomorrow</t>
+          <t>Always and Forever</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$361,329</t>
+          <t>$197,464</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Greed</t>
+          <t>Beanpole</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$355,308</t>
+          <t>$196,258</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Yellow Rose</t>
+          <t>The Doors: Break On Thru - A Celebration Of Ray Manzarek</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$348,011</t>
+          <t>$190,160</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ride Your Wave</t>
+          <t>The Outpost</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$332,432</t>
+          <t>$186,635</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>The Eight Hundred</t>
+          <t>The Wolf of Snow Hollow</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$331,279</t>
+          <t>$185,026</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Les Misérables</t>
+          <t>Come Away</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$330,181</t>
+          <t>$184,477</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Die Hard2020 Re-release</t>
+          <t>And Then We Danced</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$325,000</t>
+          <t>$177,262</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Clemency</t>
+          <t>Follow Me</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$323,980</t>
+          <t>$167,962</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ordinary Love</t>
+          <t>Extra Ordinary</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$323,688</t>
+          <t>$164,346</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Informer</t>
+          <t>Palm Springs</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$300,460</t>
+          <t>$164,000</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Playing with Fire</t>
+          <t>Ammonite</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$300,460</t>
+          <t>$160,930</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Save Yourselves!</t>
+          <t>Halloween2020 Re-release</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$299,914</t>
+          <t>$160,000</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>A Call to Spy</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$296,343</t>
+          <t>$159,014</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Traitor</t>
+          <t>The Dark and the Wicked</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$296,027</t>
+          <t>$157,252</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Gremlins2020 Re-release</t>
+          <t>Love Story50th Anniversary</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$295,000</t>
+          <t>$153,504</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>How the Grinch Stole Christmas2020 Re-release</t>
+          <t>The Burnt Orange Heresy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$294,000</t>
+          <t>$144,201</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Mystify: Michael Hutchence</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$289,573</t>
+          <t>$143,518</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Created Equal: Clarence Thomas in His Own Words</t>
+          <t>Incitement</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$282,149</t>
+          <t>$140,306</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Fatman</t>
+          <t>Archive</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$278,376</t>
+          <t>$139,593</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>An American in Paris2020 Re-release</t>
+          <t>Burden</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$267,824</t>
+          <t>$139,270</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wonder Woman2020 Re-release</t>
+          <t>Most Wanted</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$252,000</t>
+          <t>$138,000</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Back to the Future2020 Re-release</t>
+          <t>The Nest</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$247,000</t>
+          <t>$137,886</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Bohemian Rhapsody2020 Re-release</t>
+          <t>Beneath Us</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$240,000</t>
+          <t>$137,260</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>63 Up</t>
+          <t>The Times of Bill Cunningham</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$238,204</t>
+          <t>$134,288</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Tokyo Godfathers2020 Re-release</t>
+          <t>Corpus Christi</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$237,581</t>
+          <t>$127,240</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Blind Eyes Opened</t>
+          <t>14 Days, 12 Nights</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$234,505</t>
+          <t>$122,530</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>The Climb</t>
+          <t>Archenemy</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$234,429</t>
+          <t>$121,642</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Doctor Who Live Q&amp;A And Screening</t>
+          <t>The Man Standing Next</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$228,615</t>
+          <t>$113,527</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CatVideoFest 2020</t>
+          <t>Hope Gap</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$219,698</t>
+          <t>$104,732</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Frozen2020 Re-release</t>
+          <t>Lucky Grandma</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$215,000</t>
+          <t>$102,000</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Wild Mountain Thyme</t>
+          <t>Grease2020 Re-release</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$213,440</t>
+          <t>$102,000</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The Secrets We Keep</t>
+          <t>Made in Italy</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$207,928</t>
+          <t>$101,339</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Jiang Ziya</t>
+          <t>First Cow</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$206,975</t>
+          <t>$101,068</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Fate/stay night [Heaven's Feel] III. spring song</t>
+          <t>The Silencing</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$200,000</t>
+          <t>$100,746</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ashfall</t>
+          <t>The Muppet Christmas Carol2020 Re-release</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$199,575</t>
+          <t>$100,000</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>National Theater Live: Cyrano de Bergerac2020 Re-release</t>
+          <t>Come to Daddy</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$198,352</t>
+          <t>$96,713</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Zombieland: Double Tap</t>
+          <t>The Godfather Part III2020 Re-release</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$192,926</t>
+          <t>$95,330</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>First Lady</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$190,635</t>
+          <t>$93,298</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The Doors: Break On Thru - A Celebration Of Ray Manzarek</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$189,771</t>
+          <t>$93,147</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>The Outpost</t>
+          <t>Miss Juneteenth</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$186,634</t>
+          <t>$92,349</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The Wolf of Snow Hollow</t>
+          <t>Leap</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$185,026</t>
+          <t>$83,074</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Come Away</t>
+          <t>On the Basis of Sex2020 Re-release</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$183,423</t>
+          <t>$82,150</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>The Good Liar</t>
+          <t>Riverdance 25th Anniversary Show</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$182,779</t>
+          <t>$81,879</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>And Then We Danced</t>
+          <t>Children of the Sea</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$177,262</t>
+          <t>$81,237</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Beanpole</t>
+          <t>StarDog and TurboCat</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$173,162</t>
+          <t>$80,490</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Follow Me</t>
+          <t>Pray: The Story of Patrick Peyton</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$167,962</t>
+          <t>$72,347</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Extra Ordinary</t>
+          <t>Come and See2020 Re-release</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$164,346</t>
+          <t>$71,909</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Palm Springs</t>
+          <t>How to Build a Girl</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$164,000</t>
+          <t>$70,632</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A Call to Spy</t>
+          <t>We Summon the Darkness</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$158,864</t>
+          <t>$60,794</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Love Story50th Anniversary</t>
+          <t>My Brothers' Crossing</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$153,504</t>
+          <t>$59,395</t>
         </is>
       </c>
     </row>
